--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyLoginPassword/modifyLoginPassword.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyLoginPassword/modifyLoginPassword.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2040" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,38 @@
   </si>
   <si>
     <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+  </si>
+  <si>
+    <t>修改登录密码</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>degn'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改登录密码</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi'm</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,87 +492,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="9" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyLoginPassword/modifyLoginPassword.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyLoginPassword/modifyLoginPassword.xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8888</t>
@@ -142,6 +134,14 @@
     <rPh sb="4" eb="5">
       <t>mi'm</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -516,34 +516,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -557,22 +557,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -581,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
